--- a/Add测试去掉alpha/res/特效渲染研究.xlsx
+++ b/Add测试去掉alpha/res/特效渲染研究.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>疑问 ：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,42 @@
   </si>
   <si>
     <t>2 显示效果不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 问题说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 贴图是  Srgb格式，对于有a通道的，a部分  不会转换， 采用线性方式处理，但是 对于r通道进行了伽马处理，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导致出来效果不一样。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 在正常blend情况下，会使用 特效a通道， 但是切换成 add模式， unity 还是会处理一次a操作。会导致 美术做的a通道 在引擎中总是会小一些， </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方法就是： 使用add模式时候 (特效黑白图) a通道填充成白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 默认 打开ps 就是在 伽马空间下进行，有a通道 情况下，效果，可以看周边一些光晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 unity中测试， （shader 中输出a通道是贴图的a 之后进行了add操作，再次乘以了一个a ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于乘以了两次a 光源效果减弱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,6 +264,226 @@
         <a:xfrm>
           <a:off x="981075" y="10839450"/>
           <a:ext cx="9733333" cy="4942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>771111</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>209231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64B2EA1-C1CF-478F-9D0A-3E1890A5DF29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524250" y="19088100"/>
+          <a:ext cx="3314286" cy="2552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571004</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>18575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E3D3F1-A22F-47EB-8D8E-9F900BEDE1BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="19078575"/>
+          <a:ext cx="3971429" cy="3800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428139</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>47148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F9FC9BF-01AC-483E-832B-6ED10D59D0F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="23850600"/>
+          <a:ext cx="3885714" cy="3819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>74968</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>161349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FAC1EEE-C5D3-42ED-BF14-3BC29F9899D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="28651200"/>
+          <a:ext cx="9857143" cy="4609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>313173</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>199459</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104797CB-C85F-4AE3-9D0A-43C041354EFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228975" y="33299400"/>
+          <a:ext cx="9219048" cy="4523809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -536,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="P142" sqref="P142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -559,6 +815,51 @@
         <v>2</v>
       </c>
     </row>
+    <row r="70" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
